--- a/biology/Botanique/Canavalia_ensiformis/Canavalia_ensiformis.xlsx
+++ b/biology/Botanique/Canavalia_ensiformis/Canavalia_ensiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canavalia ensiformis est une espèce de plante à fleurs appartenant de la famille des Fabaceae. C'est une liane d'origine néotropicale utilisée pour la nutrition humaine et comme fourrage pour les animaux, en particulier au Brésil. C'est aussi la source de la concanavaline A.
-On l'appelle localement  pois-sabre (nom partagé avec d'autres espèces comme Canavalia gladiata), haricot de Madagascar, haricot sabre, pois gogane en français, gotani bean, jack bean, jackbean, swordbean en anglais, frijol espada, haba de burro, judía sable en espagnol, Jackbohne, Schwertbohne en allemand, canavalia en italien et feijão-de-porco (« haricot-de-cochon ») en portugais brésilien[4].
+On l'appelle localement  pois-sabre (nom partagé avec d'autres espèces comme Canavalia gladiata), haricot de Madagascar, haricot sabre, pois gogane en français, gotani bean, jack bean, jackbean, swordbean en anglais, frijol espada, haba de burro, judía sable en espagnol, Jackbohne, Schwertbohne en allemand, canavalia en italien et feijão-de-porco (« haricot-de-cochon ») en portugais brésilien.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canavalia ensiformis est une plante volubile pouvant grimper à plusieurs mètres de hauteur. Ses racines profondes lui permettent de résister à la sécheresse. La plante peut se propager via des stolons. Les fleurs sont blanchâtres plus ou moins tachées de pourpre. Les gousses, mesurant jusqu'à 36 centimètres de long, sont très larges (5 centimètres) et en séchant passent du vert au beige. A l'intérieur des alvéoles formant comme un papier de soie très fin contiennent de grosses graines blanches[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canavalia ensiformis est une plante volubile pouvant grimper à plusieurs mètres de hauteur. Ses racines profondes lui permettent de résister à la sécheresse. La plante peut se propager via des stolons. Les fleurs sont blanchâtres plus ou moins tachées de pourpre. Les gousses, mesurant jusqu'à 36 centimètres de long, sont très larges (5 centimètres) et en séchant passent du vert au beige. A l'intérieur des alvéoles formant comme un papier de soie très fin contiennent de grosses graines blanches.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes gousses de Canavalia ensiformis sont consommées cuites comme légume vert. Les graines peuvent être consommées après une cuisson suffisante (la chaleur détruit les substances légèrement toxiques qu'elles contiennent). Les jeunes feuilles sont également comestibles.
 La plante entière peut être utilisée comme fourrage, mais il faut veiller à ce que cet aliment ne soit pas souillé par de l'urine : Canavalia ensiformis contient de grandes quantités d'uréase, un enzyme qui dégrade l'urée en ammoniac toxique.
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Canavalia ensiformis n'est pas cultivé  à grande échelle pour des cultures commerciales. Il atteint communément 2 mètres dans les jardins, si les conditions lui sont favorables : il préfère les sols riches, des régions chaudes, ensoleillées, et pluvieuses.
 </t>
@@ -607,18 +625,20 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En anglais, Canavalia ensiformis porte de nombreux noms, qui sont souvent sont trompeurs ou ambigu, car dérivant de comparaison avec des plantes similaires par leurs graines ou leurs fruits :
 Brazilian broad bean (fève brésilienne)
 Coffee bean (grain de café)
 Chickasaw lima bean (haricot de Lima des Chicachas)
 Ensiform bean
-Goatani bean[4]
+Goatani bean
 Horse bean (haricot de cheval, nom généralement appliqué à Vicia faba)
 Jack bean (également appliqué à d'autres espèces du genre Canavalia)
 Mole bean
-Overlook bean[6]
+Overlook bean
 Pearson bean
 Sword bean (pois sabre, nom généralement appliqué à Canavalia gladiata)
 Wonder bean</t>
